--- a/public/assets/file/Template-IPK-III-2-sheet.xlsx
+++ b/public/assets/file/Template-IPK-III-2-sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UNY\Bissmillah\App\laravel-app\app-updated\storage\app\public\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92AC3DC-9059-4042-9863-F949CF7E00E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C500BA26-F4EC-4483-80F4-6333C8149F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{9848FFB0-B1BB-4902-973E-BB92E284000B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="8" xr2:uid="{9848FFB0-B1BB-4902-973E-BB92E284000B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3027,15 +3027,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3051,7 +3043,15 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3815,53 +3815,53 @@
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="84"/>
-      <c r="E8" s="83" t="s">
+      <c r="D8" s="90"/>
+      <c r="E8" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="84"/>
-      <c r="G8" s="83" t="s">
+      <c r="F8" s="90"/>
+      <c r="G8" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="84"/>
-      <c r="I8" s="83" t="s">
+      <c r="H8" s="90"/>
+      <c r="I8" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="84"/>
-      <c r="K8" s="83" t="s">
+      <c r="J8" s="90"/>
+      <c r="K8" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="85"/>
+      <c r="L8" s="91"/>
       <c r="U8" s="4"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="86" t="s">
+      <c r="B9" s="87"/>
+      <c r="C9" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="90"/>
-      <c r="E9" s="86" t="s">
+      <c r="D9" s="88"/>
+      <c r="E9" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="90"/>
-      <c r="G9" s="86" t="s">
+      <c r="F9" s="88"/>
+      <c r="G9" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="90"/>
-      <c r="I9" s="86" t="s">
+      <c r="H9" s="88"/>
+      <c r="I9" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="90"/>
-      <c r="K9" s="86" t="s">
+      <c r="J9" s="88"/>
+      <c r="K9" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="87"/>
+      <c r="L9" s="85"/>
       <c r="U9" s="4"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -4049,7 +4049,7 @@
         <f>SUM(C14+E14-G14-I14)</f>
         <v>0</v>
       </c>
-      <c r="L14" s="91">
+      <c r="L14" s="83">
         <f>SUM(D14+F14-H14-J14)</f>
         <v>0</v>
       </c>
@@ -6125,17 +6125,17 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="YgHMCul2yZgybTPvqZAFx4B9GVYlF2+H1IekSOMQIKDiHxEbbaXZbg4LVXoXnxe9HD8+itAtIlyDCKQdCtO+xA==" saltValue="ZFUVP83hgvU0XRv66HLY4Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="I9:J9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="U13:U18" r:id="rId1" display="disnaker@gmail.com" xr:uid="{8481064F-59AB-4A6A-BDF6-E6B337A929A5}"/>
@@ -6149,7 +6149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FAB4D2B-B428-45CE-B583-1FD87C69338C}">
   <dimension ref="A2:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A39" workbookViewId="0">
       <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
@@ -6188,52 +6188,52 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="84"/>
-      <c r="E8" s="83" t="s">
+      <c r="D8" s="90"/>
+      <c r="E8" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="84"/>
-      <c r="G8" s="83" t="s">
+      <c r="F8" s="90"/>
+      <c r="G8" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="84"/>
-      <c r="I8" s="83" t="s">
+      <c r="H8" s="90"/>
+      <c r="I8" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="84"/>
-      <c r="K8" s="83" t="s">
+      <c r="J8" s="90"/>
+      <c r="K8" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="85"/>
+      <c r="L8" s="91"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="86" t="s">
+      <c r="B9" s="87"/>
+      <c r="C9" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="90"/>
-      <c r="E9" s="86" t="s">
+      <c r="D9" s="88"/>
+      <c r="E9" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="90"/>
-      <c r="G9" s="86" t="s">
+      <c r="F9" s="88"/>
+      <c r="G9" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="90"/>
-      <c r="I9" s="86" t="s">
+      <c r="H9" s="88"/>
+      <c r="I9" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="90"/>
-      <c r="K9" s="86" t="s">
+      <c r="J9" s="88"/>
+      <c r="K9" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="87"/>
+      <c r="L9" s="85"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
@@ -8884,52 +8884,52 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="89" t="s">
         <v>227</v>
       </c>
-      <c r="D8" s="84"/>
-      <c r="E8" s="83" t="s">
+      <c r="D8" s="90"/>
+      <c r="E8" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="84"/>
-      <c r="G8" s="83" t="s">
+      <c r="F8" s="90"/>
+      <c r="G8" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="84"/>
-      <c r="I8" s="83" t="s">
+      <c r="H8" s="90"/>
+      <c r="I8" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="84"/>
-      <c r="K8" s="83" t="s">
+      <c r="J8" s="90"/>
+      <c r="K8" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="85"/>
+      <c r="L8" s="91"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="86" t="s">
+      <c r="B9" s="87"/>
+      <c r="C9" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="90"/>
-      <c r="E9" s="86" t="s">
+      <c r="D9" s="88"/>
+      <c r="E9" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="90"/>
-      <c r="G9" s="86" t="s">
+      <c r="F9" s="88"/>
+      <c r="G9" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="90"/>
-      <c r="I9" s="86" t="s">
+      <c r="H9" s="88"/>
+      <c r="I9" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="90"/>
-      <c r="K9" s="86" t="s">
+      <c r="J9" s="88"/>
+      <c r="K9" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="87"/>
+      <c r="L9" s="85"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
@@ -11174,17 +11174,17 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="h1ysH7T9MX5GvNIv1QotvYc+EZdxLhLC7donzPRBGr1UQwZFK9WW3DtJ7UURD2QlzeTKlIzOqAeYus5idYWxUA==" saltValue="ik3+1YqjngGnuvanGRVwgg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="K8:L8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11234,52 +11234,52 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="89" t="s">
         <v>227</v>
       </c>
-      <c r="D8" s="84"/>
-      <c r="E8" s="83" t="s">
+      <c r="D8" s="90"/>
+      <c r="E8" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="84"/>
-      <c r="G8" s="83" t="s">
+      <c r="F8" s="90"/>
+      <c r="G8" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="84"/>
-      <c r="I8" s="83" t="s">
+      <c r="H8" s="90"/>
+      <c r="I8" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="84"/>
-      <c r="K8" s="83" t="s">
+      <c r="J8" s="90"/>
+      <c r="K8" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="85"/>
+      <c r="L8" s="91"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="86" t="s">
+      <c r="B9" s="87"/>
+      <c r="C9" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="90"/>
-      <c r="E9" s="86" t="s">
+      <c r="D9" s="88"/>
+      <c r="E9" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="90"/>
-      <c r="G9" s="86" t="s">
+      <c r="F9" s="88"/>
+      <c r="G9" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="90"/>
-      <c r="I9" s="86" t="s">
+      <c r="H9" s="88"/>
+      <c r="I9" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="90"/>
-      <c r="K9" s="86" t="s">
+      <c r="J9" s="88"/>
+      <c r="K9" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="87"/>
+      <c r="L9" s="85"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
@@ -13933,17 +13933,17 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="6dY2vsC1NKKrK+07kWMw7QDDgy7ADWphiZS+h3akpItM9iXg0xaiRAN4lr+oKZe2GzMrY9UkBpnTZ6gTrSkdOg==" saltValue="bYGrMbXS2mUqef/pktn7xw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="K8:L8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13993,52 +13993,52 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="89" t="s">
         <v>227</v>
       </c>
-      <c r="D8" s="84"/>
-      <c r="E8" s="83" t="s">
+      <c r="D8" s="90"/>
+      <c r="E8" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="84"/>
-      <c r="G8" s="83" t="s">
+      <c r="F8" s="90"/>
+      <c r="G8" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="84"/>
-      <c r="I8" s="83" t="s">
+      <c r="H8" s="90"/>
+      <c r="I8" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="84"/>
-      <c r="K8" s="83" t="s">
+      <c r="J8" s="90"/>
+      <c r="K8" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="85"/>
+      <c r="L8" s="91"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="86" t="s">
+      <c r="B9" s="87"/>
+      <c r="C9" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="90"/>
-      <c r="E9" s="86" t="s">
+      <c r="D9" s="88"/>
+      <c r="E9" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="90"/>
-      <c r="G9" s="86" t="s">
+      <c r="F9" s="88"/>
+      <c r="G9" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="90"/>
-      <c r="I9" s="86" t="s">
+      <c r="H9" s="88"/>
+      <c r="I9" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="90"/>
-      <c r="K9" s="86" t="s">
+      <c r="J9" s="88"/>
+      <c r="K9" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="87"/>
+      <c r="L9" s="85"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
@@ -16653,17 +16653,17 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="qj9/WmeleeZCDrwLqOw2X6gnn0Yg/6kVCVO5wea7hEh0pRhbn9pSxuQ4qVx9Lmlk0q2lChzXrSlvmUk0xEW3cQ==" saltValue="xnTtreYsLVGolXbND0Hd+g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="K8:L8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16713,52 +16713,52 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="89" t="s">
         <v>227</v>
       </c>
-      <c r="D8" s="84"/>
-      <c r="E8" s="83" t="s">
+      <c r="D8" s="90"/>
+      <c r="E8" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="84"/>
-      <c r="G8" s="83" t="s">
+      <c r="F8" s="90"/>
+      <c r="G8" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="84"/>
-      <c r="I8" s="83" t="s">
+      <c r="H8" s="90"/>
+      <c r="I8" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="84"/>
-      <c r="K8" s="83" t="s">
+      <c r="J8" s="90"/>
+      <c r="K8" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="85"/>
+      <c r="L8" s="91"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="86" t="s">
+      <c r="B9" s="87"/>
+      <c r="C9" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="90"/>
-      <c r="E9" s="86" t="s">
+      <c r="D9" s="88"/>
+      <c r="E9" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="90"/>
-      <c r="G9" s="86" t="s">
+      <c r="F9" s="88"/>
+      <c r="G9" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="90"/>
-      <c r="I9" s="86" t="s">
+      <c r="H9" s="88"/>
+      <c r="I9" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="90"/>
-      <c r="K9" s="86" t="s">
+      <c r="J9" s="88"/>
+      <c r="K9" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="87"/>
+      <c r="L9" s="85"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
@@ -19171,17 +19171,17 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="2RMdZr1lAbwK99pRvxFrMaA4EDrphxKHiOhAdBx7hqsLMm7UZEeMhQVhnPD3ByTRj8tnT5FhICRjHO3exi4NMw==" saltValue="beOOfJAaktqD/GCzMB6v7Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="K8:L8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -19231,52 +19231,52 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="37"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="89" t="s">
         <v>227</v>
       </c>
-      <c r="D8" s="84"/>
-      <c r="E8" s="83" t="s">
+      <c r="D8" s="90"/>
+      <c r="E8" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="84"/>
-      <c r="G8" s="83" t="s">
+      <c r="F8" s="90"/>
+      <c r="G8" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="84"/>
-      <c r="I8" s="83" t="s">
+      <c r="H8" s="90"/>
+      <c r="I8" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="84"/>
-      <c r="K8" s="83" t="s">
+      <c r="J8" s="90"/>
+      <c r="K8" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="85"/>
+      <c r="L8" s="91"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="86" t="s">
+      <c r="B9" s="87"/>
+      <c r="C9" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="90"/>
-      <c r="E9" s="86" t="s">
+      <c r="D9" s="88"/>
+      <c r="E9" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="90"/>
-      <c r="G9" s="86" t="s">
+      <c r="F9" s="88"/>
+      <c r="G9" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="90"/>
-      <c r="I9" s="86" t="s">
+      <c r="H9" s="88"/>
+      <c r="I9" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="90"/>
-      <c r="K9" s="86" t="s">
+      <c r="J9" s="88"/>
+      <c r="K9" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="87"/>
+      <c r="L9" s="85"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
@@ -21647,17 +21647,17 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="GYLcDOEBCvcjqDQyxjHKj7mz4GX23GfNR6dcMkYdgQx32gS59omLwgp/q1sMue1tRQyrpmbRd6W0oyw62PthCQ==" saltValue="hdpytUA3A8TQNP6YwZwHEg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="K8:L8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -21707,52 +21707,52 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="89" t="s">
         <v>227</v>
       </c>
-      <c r="D8" s="84"/>
-      <c r="E8" s="83" t="s">
+      <c r="D8" s="90"/>
+      <c r="E8" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="84"/>
-      <c r="G8" s="83" t="s">
+      <c r="F8" s="90"/>
+      <c r="G8" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="84"/>
-      <c r="I8" s="83" t="s">
+      <c r="H8" s="90"/>
+      <c r="I8" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="84"/>
+      <c r="J8" s="90"/>
       <c r="K8" s="27" t="s">
         <v>14</v>
       </c>
       <c r="L8" s="28"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="86" t="s">
+      <c r="B9" s="87"/>
+      <c r="C9" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="90"/>
-      <c r="E9" s="86" t="s">
+      <c r="D9" s="88"/>
+      <c r="E9" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="90"/>
-      <c r="G9" s="86" t="s">
+      <c r="F9" s="88"/>
+      <c r="G9" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="90"/>
-      <c r="I9" s="86" t="s">
+      <c r="H9" s="88"/>
+      <c r="I9" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="90"/>
-      <c r="K9" s="86" t="s">
+      <c r="J9" s="88"/>
+      <c r="K9" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="87"/>
+      <c r="L9" s="85"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
@@ -23888,16 +23888,16 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="EeaPZP787/I24PCuhlNv7SrzgVPPs+uhOMINmP6l92CekbOsMZoINUEdh4UKKlaYdLWTZHMX4B0D156IbN3XOw==" saltValue="fCDR3TUzFYA9e28VzSbleg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="10">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:J8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -23908,8 +23908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07263C9-21B3-48AA-95C3-9F29D7149565}">
   <dimension ref="A2:L70"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="K70" sqref="K70"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23947,52 +23947,52 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="37"/>
       <c r="B8" s="42"/>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="89" t="s">
         <v>227</v>
       </c>
-      <c r="D8" s="84"/>
-      <c r="E8" s="83" t="s">
+      <c r="D8" s="90"/>
+      <c r="E8" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="84"/>
-      <c r="G8" s="83" t="s">
+      <c r="F8" s="90"/>
+      <c r="G8" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="84"/>
-      <c r="I8" s="83" t="s">
+      <c r="H8" s="90"/>
+      <c r="I8" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="84"/>
-      <c r="K8" s="83" t="s">
+      <c r="J8" s="90"/>
+      <c r="K8" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="85"/>
+      <c r="L8" s="91"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="86" t="s">
+      <c r="B9" s="87"/>
+      <c r="C9" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="90"/>
-      <c r="E9" s="86" t="s">
+      <c r="D9" s="88"/>
+      <c r="E9" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="90"/>
-      <c r="G9" s="86" t="s">
+      <c r="F9" s="88"/>
+      <c r="G9" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="90"/>
-      <c r="I9" s="86" t="s">
+      <c r="H9" s="88"/>
+      <c r="I9" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="90"/>
-      <c r="K9" s="86" t="s">
+      <c r="J9" s="88"/>
+      <c r="K9" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="87"/>
+      <c r="L9" s="85"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
@@ -26444,19 +26444,18 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="o5PfD1pFnKLll/HrQiUdDHOlRlRZMvUcwarznR1CzfoeKbRMuK4uPpAxZKKuae6lVez0mZw0418zJjCb5iU/TQ==" saltValue="rzcleh4s/6LutLi5cEzRHw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="K8:L8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
